--- a/src/assets/colors.xlsx
+++ b/src/assets/colors.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -19,23 +19,122 @@
     <t>rgb</t>
   </si>
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>255, 0, 0</t>
-  </si>
-  <si>
-    <t>red</t>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>Lime green</t>
+  </si>
+  <si>
+    <t>(50,205,50)</t>
+  </si>
+  <si>
+    <t>#32CD32</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>(255,255,0)</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>(255,215,0)</t>
+  </si>
+  <si>
+    <t>#FFD700</t>
+  </si>
+  <si>
+    <t>Indian red</t>
+  </si>
+  <si>
+    <t>(205,92,92)</t>
+  </si>
+  <si>
+    <t>#CD5C5C</t>
+  </si>
+  <si>
+    <t>Light salmon</t>
+  </si>
+  <si>
+    <t>(255,160,122)</t>
+  </si>
+  <si>
+    <t>#FFA07A</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>(128,0,0)</t>
+  </si>
+  <si>
+    <t>#800000</t>
+  </si>
+  <si>
+    <t>Chartreuse</t>
+  </si>
+  <si>
+    <t>(127,255,0)</t>
+  </si>
+  <si>
+    <t>#7FFF00</t>
+  </si>
+  <si>
+    <t>Dodger blue</t>
+  </si>
+  <si>
+    <t>(30,144,255)</t>
+  </si>
+  <si>
+    <t>#1E90FF</t>
+  </si>
+  <si>
+    <t>Deep pink</t>
+  </si>
+  <si>
+    <t>(255,20,147)</t>
+  </si>
+  <si>
+    <t>#FF1493</t>
+  </si>
+  <si>
+    <t>Light steel blue</t>
+  </si>
+  <si>
+    <t>(176,196,222)</t>
+  </si>
+  <si>
+    <t>#B0C4DE</t>
+  </si>
+  <si>
+    <t>Antique white</t>
+  </si>
+  <si>
+    <t>(250,235,215)</t>
+  </si>
+  <si>
+    <t>#FAEBD7</t>
+  </si>
+  <si>
+    <t>Saddle brown</t>
+  </si>
+  <si>
+    <t>(139,69,19)</t>
+  </si>
+  <si>
+    <t>#8B4513</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -46,6 +145,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,12 +165,28 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,6 +403,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -297,14 +419,993 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
